--- a/file/datamonhocphan.xlsx
+++ b/file/datamonhocphan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\HK1-Nam4\Cong nghe moi\Do an\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioCode\data_baitaplon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D49ECE-58E7-45A3-9D80-F30A92AA3D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D175F4-BE95-4E9D-B58F-B28BF6CB0C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,15 +39,6 @@
     <t>Cơ khí xăng dầu</t>
   </si>
   <si>
-    <t>CATOON</t>
-  </si>
-  <si>
-    <t>HEHE</t>
-  </si>
-  <si>
-    <t>HAHA</t>
-  </si>
-  <si>
     <t>TEST</t>
   </si>
   <si>
@@ -88,6 +79,15 @@
   </si>
   <si>
     <t>MHP04</t>
+  </si>
+  <si>
+    <t>TEST1</t>
+  </si>
+  <si>
+    <t>TEST2</t>
+  </si>
+  <si>
+    <t>TEST3</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,53 +429,53 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -484,21 +484,21 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -507,21 +507,21 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -530,16 +530,16 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/file/datamonhocphan.xlsx
+++ b/file/datamonhocphan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioCode\data_baitaplon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\HK1-Nam4\Cong nghe moi\Do an\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D175F4-BE95-4E9D-B58F-B28BF6CB0C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7158FC2C-E070-4965-8DCA-CD712D146059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Mã khoa</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>TEST3</t>
+  </si>
+  <si>
+    <t>TEST4</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +455,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -475,7 +478,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -498,7 +501,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -521,7 +524,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
